--- a/Dragon BUURRP!_Test Case.xlsx
+++ b/Dragon BUURRP!_Test Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6972AB29-2C17-483B-BBDA-8400A91204B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C237746A-9A79-4E8F-B6FE-715B4A09BF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1876,8 +1876,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C5" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
